--- a/Output Data Structure.xlsx
+++ b/Output Data Structure.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rishi\VScode_old\My Main projects\ML\sentiment_analysis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA630F28-7E69-4E32-9BEF-B49470669105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjhF0OuB03M81mebZZtpG/bdOhZzA=="/>
@@ -408,39 +417,39 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
@@ -450,11 +459,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -468,38 +483,42 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -689,26 +708,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z964"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="117.0"/>
-    <col customWidth="1" min="3" max="15" width="18.86"/>
-    <col customWidth="1" min="16" max="26" width="8.71"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="117" customWidth="1"/>
+    <col min="3" max="15" width="18.88671875" customWidth="1"/>
+    <col min="16" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -766,9 +787,9 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>15</v>
@@ -787,9 +808,9 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
+    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>16</v>
@@ -808,9 +829,9 @@
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
     </row>
-    <row r="4" ht="14.25" customHeight="1">
+    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>17</v>
@@ -829,9 +850,9 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" ht="14.25" customHeight="1">
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>18</v>
@@ -850,9 +871,9 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>19</v>
@@ -871,9 +892,9 @@
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>20</v>
@@ -892,9 +913,9 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>21</v>
@@ -913,9 +934,9 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>22</v>
@@ -934,9 +955,9 @@
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>23</v>
@@ -955,9 +976,9 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>24</v>
@@ -976,9 +997,9 @@
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>25</v>
@@ -997,9 +1018,9 @@
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>26</v>
@@ -1018,9 +1039,9 @@
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
     </row>
-    <row r="14" ht="14.25" customHeight="1">
+    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>27</v>
@@ -1039,9 +1060,9 @@
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
     </row>
-    <row r="15" ht="14.25" customHeight="1">
+    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>28</v>
@@ -1060,9 +1081,9 @@
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
     </row>
-    <row r="16" ht="14.25" customHeight="1">
+    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>29</v>
@@ -1081,9 +1102,9 @@
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
     </row>
-    <row r="17" ht="14.25" customHeight="1">
+    <row r="17" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>30</v>
@@ -1102,9 +1123,9 @@
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>31</v>
@@ -1123,9 +1144,9 @@
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
     </row>
-    <row r="19" ht="14.25" customHeight="1">
+    <row r="19" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>32</v>
@@ -1144,9 +1165,9 @@
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
     </row>
-    <row r="20" ht="14.25" customHeight="1">
+    <row r="20" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>33</v>
@@ -1165,9 +1186,9 @@
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
     </row>
-    <row r="21" ht="14.25" customHeight="1">
+    <row r="21" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>34</v>
@@ -1186,9 +1207,9 @@
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
     </row>
-    <row r="22" ht="14.25" customHeight="1">
+    <row r="22" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>35</v>
@@ -1207,9 +1228,9 @@
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
     </row>
-    <row r="23" ht="14.25" customHeight="1">
+    <row r="23" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>36</v>
@@ -1228,9 +1249,9 @@
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
     </row>
-    <row r="24" ht="14.25" customHeight="1">
+    <row r="24" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>37</v>
@@ -1249,9 +1270,9 @@
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
     </row>
-    <row r="25" ht="14.25" customHeight="1">
+    <row r="25" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>38</v>
@@ -1270,9 +1291,9 @@
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
     </row>
-    <row r="26" ht="14.25" customHeight="1">
+    <row r="26" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>39</v>
@@ -1291,9 +1312,9 @@
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
     </row>
-    <row r="27" ht="14.25" customHeight="1">
+    <row r="27" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>40</v>
@@ -1312,9 +1333,9 @@
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
     </row>
-    <row r="28" ht="14.25" customHeight="1">
+    <row r="28" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>41</v>
@@ -1333,1623 +1354,1621 @@
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
+    <row r="29" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1">
+    <row r="30" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" ht="14.25" customHeight="1">
+    <row r="31" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" ht="14.25" customHeight="1">
+    <row r="32" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" ht="14.25" customHeight="1">
+    <row r="33" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" ht="14.25" customHeight="1">
+    <row r="34" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
+    <row r="35" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" ht="14.25" customHeight="1">
+    <row r="36" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37" ht="14.25" customHeight="1">
+    <row r="37" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" ht="14.25" customHeight="1">
+    <row r="38" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="39" ht="14.25" customHeight="1">
+    <row r="39" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="40" ht="14.25" customHeight="1">
+    <row r="40" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="41" ht="14.25" customHeight="1">
+    <row r="41" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="42" ht="14.25" customHeight="1">
+    <row r="42" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="43" ht="14.25" customHeight="1">
+    <row r="43" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" ht="14.25" customHeight="1">
+    <row r="44" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="45" ht="14.25" customHeight="1">
+    <row r="45" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="46" ht="14.25" customHeight="1">
+    <row r="46" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="47" ht="14.25" customHeight="1">
+    <row r="47" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="48" ht="14.25" customHeight="1">
+    <row r="48" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="49" ht="14.25" customHeight="1">
+    <row r="49" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="50" ht="14.25" customHeight="1">
+    <row r="50" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="51" ht="14.25" customHeight="1">
+    <row r="51" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="52" ht="14.25" customHeight="1">
+    <row r="52" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="53" ht="14.25" customHeight="1">
+    <row r="53" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="54" ht="14.25" customHeight="1">
+    <row r="54" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" ht="14.25" customHeight="1">
+    <row r="55" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="56" ht="14.25" customHeight="1">
+    <row r="56" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="57" ht="14.25" customHeight="1">
+    <row r="57" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="58" ht="14.25" customHeight="1">
+    <row r="58" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="59" ht="14.25" customHeight="1">
+    <row r="59" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="60" ht="14.25" customHeight="1">
+    <row r="60" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="61" ht="14.25" customHeight="1">
+    <row r="61" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="62" ht="14.25" customHeight="1">
+    <row r="62" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="63" ht="14.25" customHeight="1">
+    <row r="63" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="64" ht="14.25" customHeight="1">
+    <row r="64" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="65" ht="14.25" customHeight="1">
+    <row r="65" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="66" ht="14.25" customHeight="1">
+    <row r="66" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="67" ht="14.25" customHeight="1">
+    <row r="67" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="68" ht="14.25" customHeight="1">
+    <row r="68" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="69" ht="14.25" customHeight="1">
+    <row r="69" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="70" ht="14.25" customHeight="1">
+    <row r="70" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="71" ht="14.25" customHeight="1">
+    <row r="71" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="72" ht="14.25" customHeight="1">
+    <row r="72" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
-        <v>107.0</v>
+        <v>107</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="73" ht="14.25" customHeight="1">
+    <row r="73" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
-        <v>108.0</v>
+        <v>108</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="74" ht="14.25" customHeight="1">
+    <row r="74" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
-        <v>109.0</v>
+        <v>109</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="75" ht="14.25" customHeight="1">
+    <row r="75" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="76" ht="14.25" customHeight="1">
+    <row r="76" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
-        <v>111.0</v>
+        <v>111</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="77" ht="14.25" customHeight="1">
+    <row r="77" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="78" ht="14.25" customHeight="1">
+    <row r="78" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="79" ht="14.25" customHeight="1">
+    <row r="79" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
-        <v>114.0</v>
+        <v>114</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="80" ht="14.25" customHeight="1">
+    <row r="80" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="81" ht="14.25" customHeight="1">
+    <row r="81" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
-        <v>116.0</v>
+        <v>116</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="82" ht="14.25" customHeight="1">
+    <row r="82" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="83" ht="14.25" customHeight="1">
+    <row r="83" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
-        <v>118.0</v>
+        <v>118</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="84" ht="14.25" customHeight="1">
+    <row r="84" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
-        <v>119.0</v>
+        <v>119</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="85" ht="14.25" customHeight="1">
+    <row r="85" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="86" ht="14.25" customHeight="1">
+    <row r="86" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
-        <v>121.0</v>
+        <v>121</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="87" ht="14.25" customHeight="1">
+    <row r="87" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
-        <v>122.0</v>
+        <v>122</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="88" ht="14.25" customHeight="1">
+    <row r="88" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="89" ht="14.25" customHeight="1">
+    <row r="89" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
-        <v>124.0</v>
+        <v>124</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="90" ht="14.25" customHeight="1">
+    <row r="90" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="91" ht="14.25" customHeight="1">
+    <row r="91" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
-        <v>126.0</v>
+        <v>126</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="92" ht="14.25" customHeight="1">
+    <row r="92" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="93" ht="14.25" customHeight="1">
+    <row r="93" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="94" ht="14.25" customHeight="1">
+    <row r="94" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
-        <v>129.0</v>
+        <v>129</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="95" ht="14.25" customHeight="1">
+    <row r="95" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
-        <v>130.0</v>
+        <v>130</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="96" ht="14.25" customHeight="1">
+    <row r="96" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
-        <v>131.0</v>
+        <v>131</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="97" ht="14.25" customHeight="1">
+    <row r="97" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
-        <v>132.0</v>
+        <v>132</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="98" ht="14.25" customHeight="1">
+    <row r="98" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
-        <v>133.0</v>
+        <v>133</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="99" ht="14.25" customHeight="1">
+    <row r="99" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
-        <v>134.0</v>
+        <v>134</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="100" ht="14.25" customHeight="1">
+    <row r="100" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
-        <v>135.0</v>
+        <v>135</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="101" ht="14.25" customHeight="1">
+    <row r="101" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
-        <v>136.0</v>
+        <v>136</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="102" ht="14.25" customHeight="1">
+    <row r="102" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
-        <v>137.0</v>
+        <v>137</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="103" ht="14.25" customHeight="1">
+    <row r="103" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
-        <v>138.0</v>
+        <v>138</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="104" ht="14.25" customHeight="1">
+    <row r="104" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
-        <v>139.0</v>
+        <v>139</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="105" ht="14.25" customHeight="1">
+    <row r="105" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
-        <v>140.0</v>
+        <v>140</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="106" ht="14.25" customHeight="1">
+    <row r="106" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="107" ht="14.25" customHeight="1">
+    <row r="107" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
-        <v>142.0</v>
+        <v>142</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="108" ht="14.25" customHeight="1">
+    <row r="108" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
-        <v>143.0</v>
+        <v>143</v>
       </c>
       <c r="B108" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="109" ht="14.25" customHeight="1">
+    <row r="109" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
-        <v>144.0</v>
+        <v>144</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="110" ht="14.25" customHeight="1">
+    <row r="110" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
-        <v>145.0</v>
+        <v>145</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="111" ht="14.25" customHeight="1">
+    <row r="111" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
-        <v>146.0</v>
+        <v>146</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="112" ht="14.25" customHeight="1">
+    <row r="112" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
-        <v>147.0</v>
+        <v>147</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="113" ht="14.25" customHeight="1">
+    <row r="113" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="114" ht="14.25" customHeight="1">
+    <row r="114" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
-        <v>149.0</v>
+        <v>149</v>
       </c>
       <c r="B114" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="115" ht="14.25" customHeight="1">
+    <row r="115" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="116" ht="14.25" customHeight="1"/>
-    <row r="117" ht="14.25" customHeight="1"/>
-    <row r="118" ht="14.25" customHeight="1"/>
-    <row r="119" ht="14.25" customHeight="1"/>
-    <row r="120" ht="14.25" customHeight="1"/>
-    <row r="121" ht="14.25" customHeight="1"/>
-    <row r="122" ht="14.25" customHeight="1"/>
-    <row r="123" ht="14.25" customHeight="1"/>
-    <row r="124" ht="14.25" customHeight="1"/>
-    <row r="125" ht="14.25" customHeight="1"/>
-    <row r="126" ht="14.25" customHeight="1"/>
-    <row r="127" ht="14.25" customHeight="1"/>
-    <row r="128" ht="14.25" customHeight="1"/>
-    <row r="129" ht="14.25" customHeight="1"/>
-    <row r="130" ht="14.25" customHeight="1"/>
-    <row r="131" ht="14.25" customHeight="1"/>
-    <row r="132" ht="14.25" customHeight="1"/>
-    <row r="133" ht="14.25" customHeight="1"/>
-    <row r="134" ht="14.25" customHeight="1"/>
-    <row r="135" ht="14.25" customHeight="1"/>
-    <row r="136" ht="14.25" customHeight="1"/>
-    <row r="137" ht="14.25" customHeight="1"/>
-    <row r="138" ht="14.25" customHeight="1"/>
-    <row r="139" ht="14.25" customHeight="1"/>
-    <row r="140" ht="14.25" customHeight="1"/>
-    <row r="141" ht="14.25" customHeight="1"/>
-    <row r="142" ht="14.25" customHeight="1"/>
-    <row r="143" ht="14.25" customHeight="1"/>
-    <row r="144" ht="14.25" customHeight="1"/>
-    <row r="145" ht="14.25" customHeight="1"/>
-    <row r="146" ht="14.25" customHeight="1"/>
-    <row r="147" ht="14.25" customHeight="1"/>
-    <row r="148" ht="14.25" customHeight="1"/>
-    <row r="149" ht="14.25" customHeight="1"/>
-    <row r="150" ht="14.25" customHeight="1"/>
-    <row r="151" ht="14.25" customHeight="1"/>
-    <row r="152" ht="14.25" customHeight="1"/>
-    <row r="153" ht="14.25" customHeight="1"/>
-    <row r="154" ht="14.25" customHeight="1"/>
-    <row r="155" ht="14.25" customHeight="1"/>
-    <row r="156" ht="14.25" customHeight="1"/>
-    <row r="157" ht="14.25" customHeight="1"/>
-    <row r="158" ht="14.25" customHeight="1"/>
-    <row r="159" ht="14.25" customHeight="1"/>
-    <row r="160" ht="14.25" customHeight="1"/>
-    <row r="161" ht="14.25" customHeight="1"/>
-    <row r="162" ht="14.25" customHeight="1"/>
-    <row r="163" ht="14.25" customHeight="1"/>
-    <row r="164" ht="14.25" customHeight="1"/>
-    <row r="165" ht="14.25" customHeight="1"/>
-    <row r="166" ht="14.25" customHeight="1"/>
-    <row r="167" ht="14.25" customHeight="1"/>
-    <row r="168" ht="14.25" customHeight="1"/>
-    <row r="169" ht="14.25" customHeight="1"/>
-    <row r="170" ht="14.25" customHeight="1"/>
-    <row r="171" ht="14.25" customHeight="1"/>
-    <row r="172" ht="14.25" customHeight="1"/>
-    <row r="173" ht="14.25" customHeight="1"/>
-    <row r="174" ht="14.25" customHeight="1"/>
-    <row r="175" ht="14.25" customHeight="1"/>
-    <row r="176" ht="14.25" customHeight="1"/>
-    <row r="177" ht="14.25" customHeight="1"/>
-    <row r="178" ht="14.25" customHeight="1"/>
-    <row r="179" ht="14.25" customHeight="1"/>
-    <row r="180" ht="14.25" customHeight="1"/>
-    <row r="181" ht="14.25" customHeight="1"/>
-    <row r="182" ht="14.25" customHeight="1"/>
-    <row r="183" ht="14.25" customHeight="1"/>
-    <row r="184" ht="14.25" customHeight="1"/>
-    <row r="185" ht="14.25" customHeight="1"/>
-    <row r="186" ht="14.25" customHeight="1"/>
-    <row r="187" ht="14.25" customHeight="1"/>
-    <row r="188" ht="14.25" customHeight="1"/>
-    <row r="189" ht="14.25" customHeight="1"/>
-    <row r="190" ht="14.25" customHeight="1"/>
-    <row r="191" ht="14.25" customHeight="1"/>
-    <row r="192" ht="14.25" customHeight="1"/>
-    <row r="193" ht="14.25" customHeight="1"/>
-    <row r="194" ht="14.25" customHeight="1"/>
-    <row r="195" ht="14.25" customHeight="1"/>
-    <row r="196" ht="14.25" customHeight="1"/>
-    <row r="197" ht="14.25" customHeight="1"/>
-    <row r="198" ht="14.25" customHeight="1"/>
-    <row r="199" ht="14.25" customHeight="1"/>
-    <row r="200" ht="14.25" customHeight="1"/>
-    <row r="201" ht="14.25" customHeight="1"/>
-    <row r="202" ht="14.25" customHeight="1"/>
-    <row r="203" ht="14.25" customHeight="1"/>
-    <row r="204" ht="14.25" customHeight="1"/>
-    <row r="205" ht="14.25" customHeight="1"/>
-    <row r="206" ht="14.25" customHeight="1"/>
-    <row r="207" ht="14.25" customHeight="1"/>
-    <row r="208" ht="14.25" customHeight="1"/>
-    <row r="209" ht="14.25" customHeight="1"/>
-    <row r="210" ht="14.25" customHeight="1"/>
-    <row r="211" ht="14.25" customHeight="1"/>
-    <row r="212" ht="14.25" customHeight="1"/>
-    <row r="213" ht="14.25" customHeight="1"/>
-    <row r="214" ht="14.25" customHeight="1"/>
-    <row r="215" ht="14.25" customHeight="1"/>
-    <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="14.25" customHeight="1"/>
-    <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
-    <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="14.25" customHeight="1"/>
-    <row r="222" ht="14.25" customHeight="1"/>
-    <row r="223" ht="14.25" customHeight="1"/>
-    <row r="224" ht="14.25" customHeight="1"/>
-    <row r="225" ht="14.25" customHeight="1"/>
-    <row r="226" ht="14.25" customHeight="1"/>
-    <row r="227" ht="14.25" customHeight="1"/>
-    <row r="228" ht="14.25" customHeight="1"/>
-    <row r="229" ht="14.25" customHeight="1"/>
-    <row r="230" ht="14.25" customHeight="1"/>
-    <row r="231" ht="14.25" customHeight="1"/>
-    <row r="232" ht="14.25" customHeight="1"/>
-    <row r="233" ht="14.25" customHeight="1"/>
-    <row r="234" ht="14.25" customHeight="1"/>
-    <row r="235" ht="14.25" customHeight="1"/>
-    <row r="236" ht="14.25" customHeight="1"/>
-    <row r="237" ht="14.25" customHeight="1"/>
-    <row r="238" ht="14.25" customHeight="1"/>
-    <row r="239" ht="14.25" customHeight="1"/>
-    <row r="240" ht="14.25" customHeight="1"/>
-    <row r="241" ht="14.25" customHeight="1"/>
-    <row r="242" ht="14.25" customHeight="1"/>
-    <row r="243" ht="14.25" customHeight="1"/>
-    <row r="244" ht="14.25" customHeight="1"/>
-    <row r="245" ht="14.25" customHeight="1"/>
-    <row r="246" ht="14.25" customHeight="1"/>
-    <row r="247" ht="14.25" customHeight="1"/>
-    <row r="248" ht="14.25" customHeight="1"/>
-    <row r="249" ht="14.25" customHeight="1"/>
-    <row r="250" ht="14.25" customHeight="1"/>
-    <row r="251" ht="14.25" customHeight="1"/>
-    <row r="252" ht="14.25" customHeight="1"/>
-    <row r="253" ht="14.25" customHeight="1"/>
-    <row r="254" ht="14.25" customHeight="1"/>
-    <row r="255" ht="14.25" customHeight="1"/>
-    <row r="256" ht="14.25" customHeight="1"/>
-    <row r="257" ht="14.25" customHeight="1"/>
-    <row r="258" ht="14.25" customHeight="1"/>
-    <row r="259" ht="14.25" customHeight="1"/>
-    <row r="260" ht="14.25" customHeight="1"/>
-    <row r="261" ht="14.25" customHeight="1"/>
-    <row r="262" ht="14.25" customHeight="1"/>
-    <row r="263" ht="14.25" customHeight="1"/>
-    <row r="264" ht="14.25" customHeight="1"/>
-    <row r="265" ht="14.25" customHeight="1"/>
-    <row r="266" ht="14.25" customHeight="1"/>
-    <row r="267" ht="14.25" customHeight="1"/>
-    <row r="268" ht="14.25" customHeight="1"/>
-    <row r="269" ht="14.25" customHeight="1"/>
-    <row r="270" ht="14.25" customHeight="1"/>
-    <row r="271" ht="14.25" customHeight="1"/>
-    <row r="272" ht="14.25" customHeight="1"/>
-    <row r="273" ht="14.25" customHeight="1"/>
-    <row r="274" ht="14.25" customHeight="1"/>
-    <row r="275" ht="14.25" customHeight="1"/>
-    <row r="276" ht="14.25" customHeight="1"/>
-    <row r="277" ht="14.25" customHeight="1"/>
-    <row r="278" ht="14.25" customHeight="1"/>
-    <row r="279" ht="14.25" customHeight="1"/>
-    <row r="280" ht="14.25" customHeight="1"/>
-    <row r="281" ht="14.25" customHeight="1"/>
-    <row r="282" ht="14.25" customHeight="1"/>
-    <row r="283" ht="14.25" customHeight="1"/>
-    <row r="284" ht="14.25" customHeight="1"/>
-    <row r="285" ht="14.25" customHeight="1"/>
-    <row r="286" ht="14.25" customHeight="1"/>
-    <row r="287" ht="14.25" customHeight="1"/>
-    <row r="288" ht="14.25" customHeight="1"/>
-    <row r="289" ht="14.25" customHeight="1"/>
-    <row r="290" ht="14.25" customHeight="1"/>
-    <row r="291" ht="14.25" customHeight="1"/>
-    <row r="292" ht="14.25" customHeight="1"/>
-    <row r="293" ht="14.25" customHeight="1"/>
-    <row r="294" ht="14.25" customHeight="1"/>
-    <row r="295" ht="14.25" customHeight="1"/>
-    <row r="296" ht="14.25" customHeight="1"/>
-    <row r="297" ht="14.25" customHeight="1"/>
-    <row r="298" ht="14.25" customHeight="1"/>
-    <row r="299" ht="14.25" customHeight="1"/>
-    <row r="300" ht="14.25" customHeight="1"/>
-    <row r="301" ht="14.25" customHeight="1"/>
-    <row r="302" ht="14.25" customHeight="1"/>
-    <row r="303" ht="14.25" customHeight="1"/>
-    <row r="304" ht="14.25" customHeight="1"/>
-    <row r="305" ht="14.25" customHeight="1"/>
-    <row r="306" ht="14.25" customHeight="1"/>
-    <row r="307" ht="14.25" customHeight="1"/>
-    <row r="308" ht="14.25" customHeight="1"/>
-    <row r="309" ht="14.25" customHeight="1"/>
-    <row r="310" ht="14.25" customHeight="1"/>
-    <row r="311" ht="14.25" customHeight="1"/>
-    <row r="312" ht="14.25" customHeight="1"/>
-    <row r="313" ht="14.25" customHeight="1"/>
-    <row r="314" ht="14.25" customHeight="1"/>
-    <row r="315" ht="14.25" customHeight="1"/>
-    <row r="316" ht="14.25" customHeight="1"/>
-    <row r="317" ht="14.25" customHeight="1"/>
-    <row r="318" ht="14.25" customHeight="1"/>
-    <row r="319" ht="14.25" customHeight="1"/>
-    <row r="320" ht="14.25" customHeight="1"/>
-    <row r="321" ht="14.25" customHeight="1"/>
-    <row r="322" ht="14.25" customHeight="1"/>
-    <row r="323" ht="14.25" customHeight="1"/>
-    <row r="324" ht="14.25" customHeight="1"/>
-    <row r="325" ht="14.25" customHeight="1"/>
-    <row r="326" ht="14.25" customHeight="1"/>
-    <row r="327" ht="14.25" customHeight="1"/>
-    <row r="328" ht="14.25" customHeight="1"/>
-    <row r="329" ht="14.25" customHeight="1"/>
-    <row r="330" ht="14.25" customHeight="1"/>
-    <row r="331" ht="14.25" customHeight="1"/>
-    <row r="332" ht="14.25" customHeight="1"/>
-    <row r="333" ht="14.25" customHeight="1"/>
-    <row r="334" ht="14.25" customHeight="1"/>
-    <row r="335" ht="14.25" customHeight="1"/>
-    <row r="336" ht="14.25" customHeight="1"/>
-    <row r="337" ht="14.25" customHeight="1"/>
-    <row r="338" ht="14.25" customHeight="1"/>
-    <row r="339" ht="14.25" customHeight="1"/>
-    <row r="340" ht="14.25" customHeight="1"/>
-    <row r="341" ht="14.25" customHeight="1"/>
-    <row r="342" ht="14.25" customHeight="1"/>
-    <row r="343" ht="14.25" customHeight="1"/>
-    <row r="344" ht="14.25" customHeight="1"/>
-    <row r="345" ht="14.25" customHeight="1"/>
-    <row r="346" ht="14.25" customHeight="1"/>
-    <row r="347" ht="14.25" customHeight="1"/>
-    <row r="348" ht="14.25" customHeight="1"/>
-    <row r="349" ht="14.25" customHeight="1"/>
-    <row r="350" ht="14.25" customHeight="1"/>
-    <row r="351" ht="14.25" customHeight="1"/>
-    <row r="352" ht="14.25" customHeight="1"/>
-    <row r="353" ht="14.25" customHeight="1"/>
-    <row r="354" ht="14.25" customHeight="1"/>
-    <row r="355" ht="14.25" customHeight="1"/>
-    <row r="356" ht="14.25" customHeight="1"/>
-    <row r="357" ht="14.25" customHeight="1"/>
-    <row r="358" ht="14.25" customHeight="1"/>
-    <row r="359" ht="14.25" customHeight="1"/>
-    <row r="360" ht="14.25" customHeight="1"/>
-    <row r="361" ht="14.25" customHeight="1"/>
-    <row r="362" ht="14.25" customHeight="1"/>
-    <row r="363" ht="14.25" customHeight="1"/>
-    <row r="364" ht="14.25" customHeight="1"/>
-    <row r="365" ht="14.25" customHeight="1"/>
-    <row r="366" ht="14.25" customHeight="1"/>
-    <row r="367" ht="14.25" customHeight="1"/>
-    <row r="368" ht="14.25" customHeight="1"/>
-    <row r="369" ht="14.25" customHeight="1"/>
-    <row r="370" ht="14.25" customHeight="1"/>
-    <row r="371" ht="14.25" customHeight="1"/>
-    <row r="372" ht="14.25" customHeight="1"/>
-    <row r="373" ht="14.25" customHeight="1"/>
-    <row r="374" ht="14.25" customHeight="1"/>
-    <row r="375" ht="14.25" customHeight="1"/>
-    <row r="376" ht="14.25" customHeight="1"/>
-    <row r="377" ht="14.25" customHeight="1"/>
-    <row r="378" ht="14.25" customHeight="1"/>
-    <row r="379" ht="14.25" customHeight="1"/>
-    <row r="380" ht="14.25" customHeight="1"/>
-    <row r="381" ht="14.25" customHeight="1"/>
-    <row r="382" ht="14.25" customHeight="1"/>
-    <row r="383" ht="14.25" customHeight="1"/>
-    <row r="384" ht="14.25" customHeight="1"/>
-    <row r="385" ht="14.25" customHeight="1"/>
-    <row r="386" ht="14.25" customHeight="1"/>
-    <row r="387" ht="14.25" customHeight="1"/>
-    <row r="388" ht="14.25" customHeight="1"/>
-    <row r="389" ht="14.25" customHeight="1"/>
-    <row r="390" ht="14.25" customHeight="1"/>
-    <row r="391" ht="14.25" customHeight="1"/>
-    <row r="392" ht="14.25" customHeight="1"/>
-    <row r="393" ht="14.25" customHeight="1"/>
-    <row r="394" ht="14.25" customHeight="1"/>
-    <row r="395" ht="14.25" customHeight="1"/>
-    <row r="396" ht="14.25" customHeight="1"/>
-    <row r="397" ht="14.25" customHeight="1"/>
-    <row r="398" ht="14.25" customHeight="1"/>
-    <row r="399" ht="14.25" customHeight="1"/>
-    <row r="400" ht="14.25" customHeight="1"/>
-    <row r="401" ht="14.25" customHeight="1"/>
-    <row r="402" ht="14.25" customHeight="1"/>
-    <row r="403" ht="14.25" customHeight="1"/>
-    <row r="404" ht="14.25" customHeight="1"/>
-    <row r="405" ht="14.25" customHeight="1"/>
-    <row r="406" ht="14.25" customHeight="1"/>
-    <row r="407" ht="14.25" customHeight="1"/>
-    <row r="408" ht="14.25" customHeight="1"/>
-    <row r="409" ht="14.25" customHeight="1"/>
-    <row r="410" ht="14.25" customHeight="1"/>
-    <row r="411" ht="14.25" customHeight="1"/>
-    <row r="412" ht="14.25" customHeight="1"/>
-    <row r="413" ht="14.25" customHeight="1"/>
-    <row r="414" ht="14.25" customHeight="1"/>
-    <row r="415" ht="14.25" customHeight="1"/>
-    <row r="416" ht="14.25" customHeight="1"/>
-    <row r="417" ht="14.25" customHeight="1"/>
-    <row r="418" ht="14.25" customHeight="1"/>
-    <row r="419" ht="14.25" customHeight="1"/>
-    <row r="420" ht="14.25" customHeight="1"/>
-    <row r="421" ht="14.25" customHeight="1"/>
-    <row r="422" ht="14.25" customHeight="1"/>
-    <row r="423" ht="14.25" customHeight="1"/>
-    <row r="424" ht="14.25" customHeight="1"/>
-    <row r="425" ht="14.25" customHeight="1"/>
-    <row r="426" ht="14.25" customHeight="1"/>
-    <row r="427" ht="14.25" customHeight="1"/>
-    <row r="428" ht="14.25" customHeight="1"/>
-    <row r="429" ht="14.25" customHeight="1"/>
-    <row r="430" ht="14.25" customHeight="1"/>
-    <row r="431" ht="14.25" customHeight="1"/>
-    <row r="432" ht="14.25" customHeight="1"/>
-    <row r="433" ht="14.25" customHeight="1"/>
-    <row r="434" ht="14.25" customHeight="1"/>
-    <row r="435" ht="14.25" customHeight="1"/>
-    <row r="436" ht="14.25" customHeight="1"/>
-    <row r="437" ht="14.25" customHeight="1"/>
-    <row r="438" ht="14.25" customHeight="1"/>
-    <row r="439" ht="14.25" customHeight="1"/>
-    <row r="440" ht="14.25" customHeight="1"/>
-    <row r="441" ht="14.25" customHeight="1"/>
-    <row r="442" ht="14.25" customHeight="1"/>
-    <row r="443" ht="14.25" customHeight="1"/>
-    <row r="444" ht="14.25" customHeight="1"/>
-    <row r="445" ht="14.25" customHeight="1"/>
-    <row r="446" ht="14.25" customHeight="1"/>
-    <row r="447" ht="14.25" customHeight="1"/>
-    <row r="448" ht="14.25" customHeight="1"/>
-    <row r="449" ht="14.25" customHeight="1"/>
-    <row r="450" ht="14.25" customHeight="1"/>
-    <row r="451" ht="14.25" customHeight="1"/>
-    <row r="452" ht="14.25" customHeight="1"/>
-    <row r="453" ht="14.25" customHeight="1"/>
-    <row r="454" ht="14.25" customHeight="1"/>
-    <row r="455" ht="14.25" customHeight="1"/>
-    <row r="456" ht="14.25" customHeight="1"/>
-    <row r="457" ht="14.25" customHeight="1"/>
-    <row r="458" ht="14.25" customHeight="1"/>
-    <row r="459" ht="14.25" customHeight="1"/>
-    <row r="460" ht="14.25" customHeight="1"/>
-    <row r="461" ht="14.25" customHeight="1"/>
-    <row r="462" ht="14.25" customHeight="1"/>
-    <row r="463" ht="14.25" customHeight="1"/>
-    <row r="464" ht="14.25" customHeight="1"/>
-    <row r="465" ht="14.25" customHeight="1"/>
-    <row r="466" ht="14.25" customHeight="1"/>
-    <row r="467" ht="14.25" customHeight="1"/>
-    <row r="468" ht="14.25" customHeight="1"/>
-    <row r="469" ht="14.25" customHeight="1"/>
-    <row r="470" ht="14.25" customHeight="1"/>
-    <row r="471" ht="14.25" customHeight="1"/>
-    <row r="472" ht="14.25" customHeight="1"/>
-    <row r="473" ht="14.25" customHeight="1"/>
-    <row r="474" ht="14.25" customHeight="1"/>
-    <row r="475" ht="14.25" customHeight="1"/>
-    <row r="476" ht="14.25" customHeight="1"/>
-    <row r="477" ht="14.25" customHeight="1"/>
-    <row r="478" ht="14.25" customHeight="1"/>
-    <row r="479" ht="14.25" customHeight="1"/>
-    <row r="480" ht="14.25" customHeight="1"/>
-    <row r="481" ht="14.25" customHeight="1"/>
-    <row r="482" ht="14.25" customHeight="1"/>
-    <row r="483" ht="14.25" customHeight="1"/>
-    <row r="484" ht="14.25" customHeight="1"/>
-    <row r="485" ht="14.25" customHeight="1"/>
-    <row r="486" ht="14.25" customHeight="1"/>
-    <row r="487" ht="14.25" customHeight="1"/>
-    <row r="488" ht="14.25" customHeight="1"/>
-    <row r="489" ht="14.25" customHeight="1"/>
-    <row r="490" ht="14.25" customHeight="1"/>
-    <row r="491" ht="14.25" customHeight="1"/>
-    <row r="492" ht="14.25" customHeight="1"/>
-    <row r="493" ht="14.25" customHeight="1"/>
-    <row r="494" ht="14.25" customHeight="1"/>
-    <row r="495" ht="14.25" customHeight="1"/>
-    <row r="496" ht="14.25" customHeight="1"/>
-    <row r="497" ht="14.25" customHeight="1"/>
-    <row r="498" ht="14.25" customHeight="1"/>
-    <row r="499" ht="14.25" customHeight="1"/>
-    <row r="500" ht="14.25" customHeight="1"/>
-    <row r="501" ht="14.25" customHeight="1"/>
-    <row r="502" ht="14.25" customHeight="1"/>
-    <row r="503" ht="14.25" customHeight="1"/>
-    <row r="504" ht="14.25" customHeight="1"/>
-    <row r="505" ht="14.25" customHeight="1"/>
-    <row r="506" ht="14.25" customHeight="1"/>
-    <row r="507" ht="14.25" customHeight="1"/>
-    <row r="508" ht="14.25" customHeight="1"/>
-    <row r="509" ht="14.25" customHeight="1"/>
-    <row r="510" ht="14.25" customHeight="1"/>
-    <row r="511" ht="14.25" customHeight="1"/>
-    <row r="512" ht="14.25" customHeight="1"/>
-    <row r="513" ht="14.25" customHeight="1"/>
-    <row r="514" ht="14.25" customHeight="1"/>
-    <row r="515" ht="14.25" customHeight="1"/>
-    <row r="516" ht="14.25" customHeight="1"/>
-    <row r="517" ht="14.25" customHeight="1"/>
-    <row r="518" ht="14.25" customHeight="1"/>
-    <row r="519" ht="14.25" customHeight="1"/>
-    <row r="520" ht="14.25" customHeight="1"/>
-    <row r="521" ht="14.25" customHeight="1"/>
-    <row r="522" ht="14.25" customHeight="1"/>
-    <row r="523" ht="14.25" customHeight="1"/>
-    <row r="524" ht="14.25" customHeight="1"/>
-    <row r="525" ht="14.25" customHeight="1"/>
-    <row r="526" ht="14.25" customHeight="1"/>
-    <row r="527" ht="14.25" customHeight="1"/>
-    <row r="528" ht="14.25" customHeight="1"/>
-    <row r="529" ht="14.25" customHeight="1"/>
-    <row r="530" ht="14.25" customHeight="1"/>
-    <row r="531" ht="14.25" customHeight="1"/>
-    <row r="532" ht="14.25" customHeight="1"/>
-    <row r="533" ht="14.25" customHeight="1"/>
-    <row r="534" ht="14.25" customHeight="1"/>
-    <row r="535" ht="14.25" customHeight="1"/>
-    <row r="536" ht="14.25" customHeight="1"/>
-    <row r="537" ht="14.25" customHeight="1"/>
-    <row r="538" ht="14.25" customHeight="1"/>
-    <row r="539" ht="14.25" customHeight="1"/>
-    <row r="540" ht="14.25" customHeight="1"/>
-    <row r="541" ht="14.25" customHeight="1"/>
-    <row r="542" ht="14.25" customHeight="1"/>
-    <row r="543" ht="14.25" customHeight="1"/>
-    <row r="544" ht="14.25" customHeight="1"/>
-    <row r="545" ht="14.25" customHeight="1"/>
-    <row r="546" ht="14.25" customHeight="1"/>
-    <row r="547" ht="14.25" customHeight="1"/>
-    <row r="548" ht="14.25" customHeight="1"/>
-    <row r="549" ht="14.25" customHeight="1"/>
-    <row r="550" ht="14.25" customHeight="1"/>
-    <row r="551" ht="14.25" customHeight="1"/>
-    <row r="552" ht="14.25" customHeight="1"/>
-    <row r="553" ht="14.25" customHeight="1"/>
-    <row r="554" ht="14.25" customHeight="1"/>
-    <row r="555" ht="14.25" customHeight="1"/>
-    <row r="556" ht="14.25" customHeight="1"/>
-    <row r="557" ht="14.25" customHeight="1"/>
-    <row r="558" ht="14.25" customHeight="1"/>
-    <row r="559" ht="14.25" customHeight="1"/>
-    <row r="560" ht="14.25" customHeight="1"/>
-    <row r="561" ht="14.25" customHeight="1"/>
-    <row r="562" ht="14.25" customHeight="1"/>
-    <row r="563" ht="14.25" customHeight="1"/>
-    <row r="564" ht="14.25" customHeight="1"/>
-    <row r="565" ht="14.25" customHeight="1"/>
-    <row r="566" ht="14.25" customHeight="1"/>
-    <row r="567" ht="14.25" customHeight="1"/>
-    <row r="568" ht="14.25" customHeight="1"/>
-    <row r="569" ht="14.25" customHeight="1"/>
-    <row r="570" ht="14.25" customHeight="1"/>
-    <row r="571" ht="14.25" customHeight="1"/>
-    <row r="572" ht="14.25" customHeight="1"/>
-    <row r="573" ht="14.25" customHeight="1"/>
-    <row r="574" ht="14.25" customHeight="1"/>
-    <row r="575" ht="14.25" customHeight="1"/>
-    <row r="576" ht="14.25" customHeight="1"/>
-    <row r="577" ht="14.25" customHeight="1"/>
-    <row r="578" ht="14.25" customHeight="1"/>
-    <row r="579" ht="14.25" customHeight="1"/>
-    <row r="580" ht="14.25" customHeight="1"/>
-    <row r="581" ht="14.25" customHeight="1"/>
-    <row r="582" ht="14.25" customHeight="1"/>
-    <row r="583" ht="14.25" customHeight="1"/>
-    <row r="584" ht="14.25" customHeight="1"/>
-    <row r="585" ht="14.25" customHeight="1"/>
-    <row r="586" ht="14.25" customHeight="1"/>
-    <row r="587" ht="14.25" customHeight="1"/>
-    <row r="588" ht="14.25" customHeight="1"/>
-    <row r="589" ht="14.25" customHeight="1"/>
-    <row r="590" ht="14.25" customHeight="1"/>
-    <row r="591" ht="14.25" customHeight="1"/>
-    <row r="592" ht="14.25" customHeight="1"/>
-    <row r="593" ht="14.25" customHeight="1"/>
-    <row r="594" ht="14.25" customHeight="1"/>
-    <row r="595" ht="14.25" customHeight="1"/>
-    <row r="596" ht="14.25" customHeight="1"/>
-    <row r="597" ht="14.25" customHeight="1"/>
-    <row r="598" ht="14.25" customHeight="1"/>
-    <row r="599" ht="14.25" customHeight="1"/>
-    <row r="600" ht="14.25" customHeight="1"/>
-    <row r="601" ht="14.25" customHeight="1"/>
-    <row r="602" ht="14.25" customHeight="1"/>
-    <row r="603" ht="14.25" customHeight="1"/>
-    <row r="604" ht="14.25" customHeight="1"/>
-    <row r="605" ht="14.25" customHeight="1"/>
-    <row r="606" ht="14.25" customHeight="1"/>
-    <row r="607" ht="14.25" customHeight="1"/>
-    <row r="608" ht="14.25" customHeight="1"/>
-    <row r="609" ht="14.25" customHeight="1"/>
-    <row r="610" ht="14.25" customHeight="1"/>
-    <row r="611" ht="14.25" customHeight="1"/>
-    <row r="612" ht="14.25" customHeight="1"/>
-    <row r="613" ht="14.25" customHeight="1"/>
-    <row r="614" ht="14.25" customHeight="1"/>
-    <row r="615" ht="14.25" customHeight="1"/>
-    <row r="616" ht="14.25" customHeight="1"/>
-    <row r="617" ht="14.25" customHeight="1"/>
-    <row r="618" ht="14.25" customHeight="1"/>
-    <row r="619" ht="14.25" customHeight="1"/>
-    <row r="620" ht="14.25" customHeight="1"/>
-    <row r="621" ht="14.25" customHeight="1"/>
-    <row r="622" ht="14.25" customHeight="1"/>
-    <row r="623" ht="14.25" customHeight="1"/>
-    <row r="624" ht="14.25" customHeight="1"/>
-    <row r="625" ht="14.25" customHeight="1"/>
-    <row r="626" ht="14.25" customHeight="1"/>
-    <row r="627" ht="14.25" customHeight="1"/>
-    <row r="628" ht="14.25" customHeight="1"/>
-    <row r="629" ht="14.25" customHeight="1"/>
-    <row r="630" ht="14.25" customHeight="1"/>
-    <row r="631" ht="14.25" customHeight="1"/>
-    <row r="632" ht="14.25" customHeight="1"/>
-    <row r="633" ht="14.25" customHeight="1"/>
-    <row r="634" ht="14.25" customHeight="1"/>
-    <row r="635" ht="14.25" customHeight="1"/>
-    <row r="636" ht="14.25" customHeight="1"/>
-    <row r="637" ht="14.25" customHeight="1"/>
-    <row r="638" ht="14.25" customHeight="1"/>
-    <row r="639" ht="14.25" customHeight="1"/>
-    <row r="640" ht="14.25" customHeight="1"/>
-    <row r="641" ht="14.25" customHeight="1"/>
-    <row r="642" ht="14.25" customHeight="1"/>
-    <row r="643" ht="14.25" customHeight="1"/>
-    <row r="644" ht="14.25" customHeight="1"/>
-    <row r="645" ht="14.25" customHeight="1"/>
-    <row r="646" ht="14.25" customHeight="1"/>
-    <row r="647" ht="14.25" customHeight="1"/>
-    <row r="648" ht="14.25" customHeight="1"/>
-    <row r="649" ht="14.25" customHeight="1"/>
-    <row r="650" ht="14.25" customHeight="1"/>
-    <row r="651" ht="14.25" customHeight="1"/>
-    <row r="652" ht="14.25" customHeight="1"/>
-    <row r="653" ht="14.25" customHeight="1"/>
-    <row r="654" ht="14.25" customHeight="1"/>
-    <row r="655" ht="14.25" customHeight="1"/>
-    <row r="656" ht="14.25" customHeight="1"/>
-    <row r="657" ht="14.25" customHeight="1"/>
-    <row r="658" ht="14.25" customHeight="1"/>
-    <row r="659" ht="14.25" customHeight="1"/>
-    <row r="660" ht="14.25" customHeight="1"/>
-    <row r="661" ht="14.25" customHeight="1"/>
-    <row r="662" ht="14.25" customHeight="1"/>
-    <row r="663" ht="14.25" customHeight="1"/>
-    <row r="664" ht="14.25" customHeight="1"/>
-    <row r="665" ht="14.25" customHeight="1"/>
-    <row r="666" ht="14.25" customHeight="1"/>
-    <row r="667" ht="14.25" customHeight="1"/>
-    <row r="668" ht="14.25" customHeight="1"/>
-    <row r="669" ht="14.25" customHeight="1"/>
-    <row r="670" ht="14.25" customHeight="1"/>
-    <row r="671" ht="14.25" customHeight="1"/>
-    <row r="672" ht="14.25" customHeight="1"/>
-    <row r="673" ht="14.25" customHeight="1"/>
-    <row r="674" ht="14.25" customHeight="1"/>
-    <row r="675" ht="14.25" customHeight="1"/>
-    <row r="676" ht="14.25" customHeight="1"/>
-    <row r="677" ht="14.25" customHeight="1"/>
-    <row r="678" ht="14.25" customHeight="1"/>
-    <row r="679" ht="14.25" customHeight="1"/>
-    <row r="680" ht="14.25" customHeight="1"/>
-    <row r="681" ht="14.25" customHeight="1"/>
-    <row r="682" ht="14.25" customHeight="1"/>
-    <row r="683" ht="14.25" customHeight="1"/>
-    <row r="684" ht="14.25" customHeight="1"/>
-    <row r="685" ht="14.25" customHeight="1"/>
-    <row r="686" ht="14.25" customHeight="1"/>
-    <row r="687" ht="14.25" customHeight="1"/>
-    <row r="688" ht="14.25" customHeight="1"/>
-    <row r="689" ht="14.25" customHeight="1"/>
-    <row r="690" ht="14.25" customHeight="1"/>
-    <row r="691" ht="14.25" customHeight="1"/>
-    <row r="692" ht="14.25" customHeight="1"/>
-    <row r="693" ht="14.25" customHeight="1"/>
-    <row r="694" ht="14.25" customHeight="1"/>
-    <row r="695" ht="14.25" customHeight="1"/>
-    <row r="696" ht="14.25" customHeight="1"/>
-    <row r="697" ht="14.25" customHeight="1"/>
-    <row r="698" ht="14.25" customHeight="1"/>
-    <row r="699" ht="14.25" customHeight="1"/>
-    <row r="700" ht="14.25" customHeight="1"/>
-    <row r="701" ht="14.25" customHeight="1"/>
-    <row r="702" ht="14.25" customHeight="1"/>
-    <row r="703" ht="14.25" customHeight="1"/>
-    <row r="704" ht="14.25" customHeight="1"/>
-    <row r="705" ht="14.25" customHeight="1"/>
-    <row r="706" ht="14.25" customHeight="1"/>
-    <row r="707" ht="14.25" customHeight="1"/>
-    <row r="708" ht="14.25" customHeight="1"/>
-    <row r="709" ht="14.25" customHeight="1"/>
-    <row r="710" ht="14.25" customHeight="1"/>
-    <row r="711" ht="14.25" customHeight="1"/>
-    <row r="712" ht="14.25" customHeight="1"/>
-    <row r="713" ht="14.25" customHeight="1"/>
-    <row r="714" ht="14.25" customHeight="1"/>
-    <row r="715" ht="14.25" customHeight="1"/>
-    <row r="716" ht="14.25" customHeight="1"/>
-    <row r="717" ht="14.25" customHeight="1"/>
-    <row r="718" ht="14.25" customHeight="1"/>
-    <row r="719" ht="14.25" customHeight="1"/>
-    <row r="720" ht="14.25" customHeight="1"/>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
+    <row r="116" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B50"/>
-    <hyperlink r:id="rId2" ref="B51"/>
-    <hyperlink r:id="rId3" ref="B52"/>
-    <hyperlink r:id="rId4" ref="B53"/>
-    <hyperlink r:id="rId5" ref="B54"/>
-    <hyperlink r:id="rId6" ref="B55"/>
-    <hyperlink r:id="rId7" ref="B56"/>
-    <hyperlink r:id="rId8" ref="B57"/>
-    <hyperlink r:id="rId9" ref="B58"/>
-    <hyperlink r:id="rId10" ref="B59"/>
-    <hyperlink r:id="rId11" ref="B60"/>
-    <hyperlink r:id="rId12" ref="B61"/>
-    <hyperlink r:id="rId13" ref="B62"/>
-    <hyperlink r:id="rId14" ref="B63"/>
-    <hyperlink r:id="rId15" ref="B64"/>
-    <hyperlink r:id="rId16" ref="B65"/>
-    <hyperlink r:id="rId17" ref="B66"/>
-    <hyperlink r:id="rId18" ref="B67"/>
-    <hyperlink r:id="rId19" ref="B68"/>
-    <hyperlink r:id="rId20" ref="B69"/>
-    <hyperlink r:id="rId21" ref="B70"/>
-    <hyperlink r:id="rId22" ref="B71"/>
-    <hyperlink r:id="rId23" ref="B72"/>
-    <hyperlink r:id="rId24" ref="B73"/>
-    <hyperlink r:id="rId25" ref="B74"/>
-    <hyperlink r:id="rId26" ref="B75"/>
-    <hyperlink r:id="rId27" ref="B76"/>
-    <hyperlink r:id="rId28" ref="B77"/>
-    <hyperlink r:id="rId29" ref="B78"/>
-    <hyperlink r:id="rId30" ref="B79"/>
-    <hyperlink r:id="rId31" ref="B80"/>
-    <hyperlink r:id="rId32" ref="B81"/>
-    <hyperlink r:id="rId33" ref="B82"/>
-    <hyperlink r:id="rId34" ref="B83"/>
-    <hyperlink r:id="rId35" ref="B84"/>
-    <hyperlink r:id="rId36" ref="B85"/>
-    <hyperlink r:id="rId37" ref="B86"/>
-    <hyperlink r:id="rId38" ref="B87"/>
-    <hyperlink r:id="rId39" ref="B88"/>
-    <hyperlink r:id="rId40" ref="B89"/>
-    <hyperlink r:id="rId41" ref="B90"/>
-    <hyperlink r:id="rId42" ref="B91"/>
-    <hyperlink r:id="rId43" ref="B92"/>
-    <hyperlink r:id="rId44" ref="B93"/>
-    <hyperlink r:id="rId45" ref="B94"/>
-    <hyperlink r:id="rId46" ref="B95"/>
-    <hyperlink r:id="rId47" ref="B96"/>
-    <hyperlink r:id="rId48" ref="B97"/>
-    <hyperlink r:id="rId49" ref="B98"/>
-    <hyperlink r:id="rId50" ref="B99"/>
-    <hyperlink r:id="rId51" ref="B100"/>
-    <hyperlink r:id="rId52" ref="B101"/>
-    <hyperlink r:id="rId53" ref="B102"/>
-    <hyperlink r:id="rId54" ref="B103"/>
-    <hyperlink r:id="rId55" ref="B104"/>
-    <hyperlink r:id="rId56" ref="B105"/>
-    <hyperlink r:id="rId57" ref="B106"/>
-    <hyperlink r:id="rId58" ref="B107"/>
-    <hyperlink r:id="rId59" ref="B108"/>
-    <hyperlink r:id="rId60" ref="B109"/>
-    <hyperlink r:id="rId61" ref="B110"/>
-    <hyperlink r:id="rId62" ref="B111"/>
-    <hyperlink r:id="rId63" ref="B112"/>
-    <hyperlink r:id="rId64" ref="B113"/>
-    <hyperlink r:id="rId65" ref="B114"/>
-    <hyperlink r:id="rId66" ref="B115"/>
+    <hyperlink ref="B50" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B51" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B52" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B53" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B54" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B55" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B56" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B57" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B58" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B59" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B60" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B61" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B62" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B63" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B64" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B65" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B66" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B67" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B68" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B69" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B70" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B71" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B72" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B73" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B74" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B75" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B76" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B77" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B78" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B79" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B80" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B81" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B82" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B83" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B84" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B85" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B86" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B87" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B88" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B89" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B90" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B91" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B92" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B93" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B94" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B95" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B96" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B97" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B98" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B99" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B100" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B101" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B102" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B103" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B104" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B105" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B106" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B107" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B108" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B109" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B110" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B111" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B112" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B113" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B114" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B115" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId67"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId67"/>
 </worksheet>
 </file>